--- a/Spending Analysis 2023/Final.xlsx
+++ b/Spending Analysis 2023/Final.xlsx
@@ -8274,7 +8274,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -10364,7 +10364,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C523" s="2" t="n">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C524" s="2" t="n">

--- a/Spending Analysis 2023/Final.xlsx
+++ b/Spending Analysis 2023/Final.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E755"/>
+  <dimension ref="A1:E823"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,17 +465,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loans</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>44565</v>
       </c>
       <c r="D2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
@@ -484,17 +484,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Loans</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>44565</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E3" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -624,7 +624,7 @@
         <v>44592</v>
       </c>
       <c r="D10" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>44592</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -807,14 +807,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>863.98</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -845,14 +845,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
         <v>44620</v>
       </c>
       <c r="D22" t="n">
-        <v>863.98</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1016,14 +1016,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
         <v>44651</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>906.0700000000001</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1035,14 +1035,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
         <v>44651</v>
       </c>
       <c r="D32" t="n">
-        <v>906.0700000000001</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1092,14 +1092,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
         <v>44656</v>
       </c>
       <c r="D35" t="n">
-        <v>100</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1111,14 +1111,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
         <v>44656</v>
       </c>
       <c r="D36" t="n">
-        <v>76.31999999999999</v>
+        <v>100</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>44690</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>22.32</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>44690</v>
       </c>
       <c r="D53" t="n">
-        <v>22.32</v>
+        <v>23.32</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>44690</v>
       </c>
       <c r="D54" t="n">
-        <v>23.32</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -1491,17 +1491,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
         <v>44693</v>
       </c>
       <c r="D56" t="n">
-        <v>5.63</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>641.5</v>
       </c>
     </row>
     <row r="57">
@@ -1510,17 +1510,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
         <v>44693</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>5.63</v>
       </c>
       <c r="E57" t="n">
-        <v>641.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1605,14 +1605,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
         <v>44712</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>315.62</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -1643,14 +1643,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
         <v>44712</v>
       </c>
       <c r="D64" t="n">
-        <v>315.62</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>300</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="66">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>1344</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67">
@@ -1814,17 +1814,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
         <v>44739</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E73" t="n">
-        <v>26.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1833,17 +1833,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
         <v>44739</v>
       </c>
       <c r="D74" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="75">
@@ -1871,14 +1871,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
         <v>44742</v>
       </c>
       <c r="D76" t="n">
-        <v>1325.82</v>
+        <v>0.34</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -1890,14 +1890,14 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
         <v>44742</v>
       </c>
       <c r="D77" t="n">
-        <v>0.34</v>
+        <v>1325.82</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -2023,14 +2023,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
         <v>44757</v>
       </c>
       <c r="D84" t="n">
-        <v>269.5</v>
+        <v>1202.01</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -2042,14 +2042,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
         <v>44757</v>
       </c>
       <c r="D85" t="n">
-        <v>1202.01</v>
+        <v>269.5</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -2137,17 +2137,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
         <v>44767</v>
       </c>
       <c r="D90" t="n">
-        <v>61.93</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="91">
@@ -2156,17 +2156,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
         <v>44767</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>61.93</v>
       </c>
       <c r="E91" t="n">
-        <v>26.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2213,17 +2213,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
         <v>44771</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="E94" t="n">
-        <v>723.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2258,7 +2258,7 @@
         <v>44771</v>
       </c>
       <c r="D96" t="n">
-        <v>0.36</v>
+        <v>0.08</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -2308,17 +2308,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
         <v>44771</v>
       </c>
       <c r="D99" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>723.02</v>
       </c>
     </row>
     <row r="100">
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>47.67</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="107">
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>10.5</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="108">
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>18.38</v>
+        <v>47.67</v>
       </c>
     </row>
     <row r="109">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>79.73999999999999</v>
+        <v>795.71</v>
       </c>
     </row>
     <row r="115">
@@ -2612,14 +2612,14 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
         <v>44785</v>
       </c>
       <c r="D115" t="n">
-        <v>795.71</v>
+        <v>706.74</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -2631,17 +2631,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
         <v>44785</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>795.71</v>
       </c>
       <c r="E116" t="n">
-        <v>7.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>795.71</v>
+        <v>79.73999999999999</v>
       </c>
     </row>
     <row r="118">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
         <v>44785</v>
       </c>
       <c r="D118" t="n">
-        <v>706.74</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="119">
@@ -2707,17 +2707,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
         <v>44788</v>
       </c>
       <c r="D120" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>633.45</v>
       </c>
     </row>
     <row r="121">
@@ -2726,14 +2726,14 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
         <v>44788</v>
       </c>
       <c r="D121" t="n">
-        <v>131.9</v>
+        <v>478.75</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -2745,17 +2745,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
         <v>44788</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>131.9</v>
       </c>
       <c r="E122" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2764,14 +2764,14 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
         <v>44788</v>
       </c>
       <c r="D123" t="n">
-        <v>633.45</v>
+        <v>215</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>44788</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>633.45</v>
       </c>
       <c r="E124" t="n">
-        <v>633.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2809,10 +2809,10 @@
         <v>44788</v>
       </c>
       <c r="D125" t="n">
-        <v>478.75</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="126">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>36.75</v>
+        <v>366.77</v>
       </c>
     </row>
     <row r="127">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>366.77</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="128">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>103.77</v>
+        <v>57.43</v>
       </c>
     </row>
     <row r="130">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>43.76</v>
+        <v>614.75</v>
       </c>
     </row>
     <row r="131">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>57.43</v>
+        <v>566.41</v>
       </c>
     </row>
     <row r="132">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>41.75</v>
+        <v>103.77</v>
       </c>
     </row>
     <row r="133">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>566.41</v>
+        <v>41.75</v>
       </c>
     </row>
     <row r="134">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>614.75</v>
+        <v>43.76</v>
       </c>
     </row>
     <row r="135">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>25.01</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="136">
@@ -3011,17 +3011,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Misc</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="D136" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137">
@@ -3030,17 +3030,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E137" t="n">
-        <v>18.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>65</v>
+        <v>25.01</v>
       </c>
     </row>
     <row r="139">
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>29.63</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="141">
@@ -3106,17 +3106,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
         <v>44795</v>
       </c>
       <c r="D141" t="n">
-        <v>23.34</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>29.63</v>
       </c>
     </row>
     <row r="142">
@@ -3144,17 +3144,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
         <v>44795</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>23.34</v>
       </c>
       <c r="E143" t="n">
-        <v>45.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>32.62</v>
+        <v>177.47</v>
       </c>
     </row>
     <row r="145">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>177.47</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="146">
@@ -3201,17 +3201,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
         <v>44799</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>1325.82</v>
       </c>
       <c r="E146" t="n">
-        <v>19.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Misc</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>47.87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148">
@@ -3239,17 +3239,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
         <v>44799</v>
       </c>
       <c r="D148" t="n">
-        <v>1325.82</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>47.87</v>
       </c>
     </row>
     <row r="149">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>12</v>
+        <v>19.53</v>
       </c>
     </row>
     <row r="150">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>5717.29</v>
       </c>
     </row>
     <row r="154">
@@ -3353,17 +3353,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
         <v>44804</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E154" t="n">
-        <v>5717.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3379,7 +3379,7 @@
         <v>44804</v>
       </c>
       <c r="D155" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.8100000000000001</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="157">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>29.32</v>
+        <v>25.01</v>
       </c>
     </row>
     <row r="158">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>25.01</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="159">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>326.58</v>
+        <v>71.28</v>
       </c>
     </row>
     <row r="161">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>71.28</v>
+        <v>326.58</v>
       </c>
     </row>
     <row r="162">
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>157.86</v>
+        <v>938.35</v>
       </c>
     </row>
     <row r="166">
@@ -3581,17 +3581,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
         <v>44810</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E166" t="n">
-        <v>282.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>938.35</v>
+        <v>157.86</v>
       </c>
     </row>
     <row r="168">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -3645,7 +3645,7 @@
         <v>44810</v>
       </c>
       <c r="D169" t="n">
-        <v>271.1</v>
+        <v>13</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
@@ -3657,17 +3657,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
         <v>44810</v>
       </c>
       <c r="D170" t="n">
-        <v>93.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>282.2</v>
       </c>
     </row>
     <row r="171">
@@ -3676,14 +3676,14 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
         <v>44810</v>
       </c>
       <c r="D171" t="n">
-        <v>16.09</v>
+        <v>271.1</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
@@ -3695,14 +3695,14 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
         <v>44810</v>
       </c>
       <c r="D172" t="n">
-        <v>13</v>
+        <v>16.09</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>191.99</v>
+        <v>24.13</v>
       </c>
     </row>
     <row r="178">
@@ -3809,17 +3809,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
         <v>44813</v>
       </c>
       <c r="D178" t="n">
-        <v>1124.63</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="179">
@@ -3828,17 +3828,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
         <v>44813</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>1124.63</v>
       </c>
       <c r="E179" t="n">
-        <v>24.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>99.98</v>
+        <v>191.99</v>
       </c>
     </row>
     <row r="181">
@@ -3930,7 +3930,7 @@
         <v>44816</v>
       </c>
       <c r="D184" t="n">
-        <v>2825</v>
+        <v>7140</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>44816</v>
       </c>
       <c r="D185" t="n">
-        <v>7140</v>
+        <v>2825</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -4006,10 +4006,10 @@
         <v>44818</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>12.59</v>
       </c>
       <c r="E188" t="n">
-        <v>12.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4025,10 +4025,10 @@
         <v>44818</v>
       </c>
       <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
         <v>12.59</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -4056,17 +4056,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
         <v>44819</v>
       </c>
       <c r="D191" t="n">
-        <v>190.91</v>
+        <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>57.16</v>
       </c>
     </row>
     <row r="192">
@@ -4075,17 +4075,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
         <v>44819</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>190.91</v>
       </c>
       <c r="E192" t="n">
-        <v>57.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>175.55</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="196">
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>4.99</v>
+        <v>175.55</v>
       </c>
     </row>
     <row r="197">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="E203" t="n">
-        <v>4.94</v>
+        <v>95.06999999999999</v>
       </c>
     </row>
     <row r="204">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Misc</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>95.06999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>10</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="206">
@@ -4341,17 +4341,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
         <v>44833</v>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E206" t="n">
-        <v>25.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -4379,17 +4379,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
         <v>44833</v>
       </c>
       <c r="D208" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>25.01</v>
       </c>
     </row>
     <row r="209">
@@ -4436,17 +4436,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
         <v>44837</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>43.41</v>
       </c>
       <c r="E211" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -4455,17 +4455,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
         <v>44837</v>
       </c>
       <c r="D212" t="n">
-        <v>43.41</v>
+        <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>88.37</v>
       </c>
     </row>
     <row r="213">
@@ -4474,17 +4474,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
         <v>44837</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E213" t="n">
-        <v>1013.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>88.37</v>
+        <v>300</v>
       </c>
     </row>
     <row r="215">
@@ -4512,17 +4512,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
         <v>44837</v>
       </c>
       <c r="D215" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>1013.91</v>
       </c>
     </row>
     <row r="216">
@@ -4588,17 +4588,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
         <v>44841</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>851.73</v>
       </c>
       <c r="E219" t="n">
-        <v>38.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -4607,17 +4607,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
         <v>44841</v>
       </c>
       <c r="D220" t="n">
-        <v>851.73</v>
+        <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>38.18</v>
       </c>
     </row>
     <row r="221">
@@ -4683,17 +4683,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
         <v>44847</v>
       </c>
       <c r="D224" t="n">
-        <v>373.55</v>
+        <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>25.01</v>
       </c>
     </row>
     <row r="225">
@@ -4702,17 +4702,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
         <v>44847</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>373.55</v>
       </c>
       <c r="E225" t="n">
-        <v>25.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -4797,17 +4797,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
         <v>44855</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>836.25</v>
       </c>
       <c r="E230" t="n">
-        <v>9.140000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -4816,17 +4816,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
         <v>44855</v>
       </c>
       <c r="D231" t="n">
-        <v>836.25</v>
+        <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="232">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -4975,7 +4975,7 @@
         <v>44865</v>
       </c>
       <c r="D239" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
@@ -4994,7 +4994,7 @@
         <v>44865</v>
       </c>
       <c r="D240" t="n">
-        <v>0.39</v>
+        <v>25</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
@@ -5006,17 +5006,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
         <v>44865</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -5025,17 +5025,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
         <v>44865</v>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E242" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>147.67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="E244" t="n">
-        <v>369.09</v>
+        <v>147.67</v>
       </c>
     </row>
     <row r="245">
@@ -5082,17 +5082,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
         <v>44865</v>
       </c>
       <c r="D245" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>369.09</v>
       </c>
     </row>
     <row r="246">
@@ -5108,7 +5108,7 @@
         <v>44865</v>
       </c>
       <c r="D246" t="n">
-        <v>30</v>
+        <v>0.39</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
@@ -5120,17 +5120,17 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
         <v>44865</v>
       </c>
       <c r="D247" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -5146,7 +5146,7 @@
         <v>44865</v>
       </c>
       <c r="D248" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E248" t="n">
         <v>0</v>
@@ -5158,14 +5158,14 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
         <v>44865</v>
       </c>
       <c r="D249" t="n">
-        <v>369.09</v>
+        <v>150</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
@@ -5177,17 +5177,17 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
         <v>44865</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E250" t="n">
-        <v>16.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -5196,17 +5196,17 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
         <v>44865</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E251" t="n">
-        <v>13.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="E252" t="n">
-        <v>6.2</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="253">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>0</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="254">
@@ -5253,17 +5253,17 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
         <v>44865</v>
       </c>
       <c r="D254" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="255">
@@ -5272,14 +5272,14 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
         <v>44865</v>
       </c>
       <c r="D255" t="n">
-        <v>20</v>
+        <v>369.09</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
@@ -5291,17 +5291,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
         <v>44866</v>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E256" t="n">
-        <v>953.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>0.5</v>
+        <v>953.35</v>
       </c>
     </row>
     <row r="259">
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>26.11</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="260">
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>5.95</v>
+        <v>26.11</v>
       </c>
     </row>
     <row r="261">
@@ -5386,17 +5386,17 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
         <v>44866</v>
       </c>
       <c r="D261" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="262">
@@ -5405,17 +5405,17 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
         <v>44867</v>
       </c>
       <c r="D262" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="263">
@@ -5424,17 +5424,17 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
         <v>44867</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E263" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>27.75</v>
+        <v>35.04</v>
       </c>
     </row>
     <row r="265">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E265" t="n">
-        <v>35.04</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="266">
@@ -5481,14 +5481,14 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
         <v>44869</v>
       </c>
       <c r="D266" t="n">
-        <v>233.5</v>
+        <v>317.2</v>
       </c>
       <c r="E266" t="n">
         <v>0</v>
@@ -5500,14 +5500,14 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
         <v>44869</v>
       </c>
       <c r="D267" t="n">
-        <v>317.2</v>
+        <v>233.5</v>
       </c>
       <c r="E267" t="n">
         <v>0</v>
@@ -5557,17 +5557,17 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
         <v>44875</v>
       </c>
       <c r="D270" t="n">
-        <v>373.55</v>
+        <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>0</v>
+        <v>25.01</v>
       </c>
     </row>
     <row r="271">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>500</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="272">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>6.28</v>
+        <v>500</v>
       </c>
     </row>
     <row r="273">
@@ -5614,17 +5614,17 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
         <v>44875</v>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>373.55</v>
       </c>
       <c r="E273" t="n">
-        <v>25.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -5709,17 +5709,17 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
         <v>44883</v>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>929.11</v>
       </c>
       <c r="E278" t="n">
-        <v>279.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -5747,17 +5747,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
         <v>44883</v>
       </c>
       <c r="D280" t="n">
-        <v>929.11</v>
+        <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>0</v>
+        <v>279.8</v>
       </c>
     </row>
     <row r="281">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>6.95</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="283">
@@ -5804,7 +5804,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>8.050000000000001</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="284">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>32.5</v>
+        <v>40.99</v>
       </c>
     </row>
     <row r="285">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Misc</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>40.99</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="286">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>6.89</v>
+        <v>127.61</v>
       </c>
     </row>
     <row r="291">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>127.61</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="293">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -6013,17 +6013,17 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="D294" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E294" t="n">
-        <v>178.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -6058,7 +6058,7 @@
         <v>44894</v>
       </c>
       <c r="D296" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E296" t="n">
         <v>0</v>
@@ -6070,17 +6070,17 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="D297" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E297" t="n">
-        <v>0</v>
+        <v>178.27</v>
       </c>
     </row>
     <row r="298">
@@ -6096,7 +6096,7 @@
         <v>44894</v>
       </c>
       <c r="D298" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E298" t="n">
         <v>0</v>
@@ -6115,7 +6115,7 @@
         <v>44895</v>
       </c>
       <c r="D299" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E299" t="n">
         <v>0</v>
@@ -6127,17 +6127,17 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
         <v>44895</v>
       </c>
       <c r="D300" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>0</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="301">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="E301" t="n">
-        <v>19.99</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="302">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="E303" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -6210,7 +6210,7 @@
         <v>44895</v>
       </c>
       <c r="D304" t="n">
-        <v>25</v>
+        <v>0.37</v>
       </c>
       <c r="E304" t="n">
         <v>0</v>
@@ -6248,7 +6248,7 @@
         <v>44895</v>
       </c>
       <c r="D306" t="n">
-        <v>0.37</v>
+        <v>30</v>
       </c>
       <c r="E306" t="n">
         <v>0</v>
@@ -6279,17 +6279,17 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
         <v>44896</v>
       </c>
       <c r="D308" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>0</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="309">
@@ -6298,17 +6298,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
         <v>44896</v>
       </c>
       <c r="D309" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E309" t="n">
-        <v>983.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>12.73</v>
+        <v>983.63</v>
       </c>
     </row>
     <row r="311">
@@ -6336,17 +6336,17 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
         <v>44897</v>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>848.38</v>
       </c>
       <c r="E311" t="n">
-        <v>153.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -6355,17 +6355,17 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
         <v>44897</v>
       </c>
       <c r="D312" t="n">
-        <v>848.38</v>
+        <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>0</v>
+        <v>153.19</v>
       </c>
     </row>
     <row r="313">
@@ -6381,7 +6381,7 @@
         <v>44900</v>
       </c>
       <c r="D313" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E313" t="n">
         <v>0</v>
@@ -6400,7 +6400,7 @@
         <v>44900</v>
       </c>
       <c r="D314" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E314" t="n">
         <v>0</v>
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="E315" t="n">
-        <v>87.53</v>
+        <v>300</v>
       </c>
     </row>
     <row r="316">
@@ -6431,17 +6431,17 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
         <v>44900</v>
       </c>
       <c r="D316" t="n">
-        <v>56.84</v>
+        <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>0</v>
+        <v>87.53</v>
       </c>
     </row>
     <row r="317">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>300</v>
+        <v>442.78</v>
       </c>
     </row>
     <row r="319">
@@ -6488,17 +6488,17 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
         <v>44900</v>
       </c>
       <c r="D319" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>0</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="320">
@@ -6507,17 +6507,17 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
         <v>44900</v>
       </c>
       <c r="D320" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E320" t="n">
-        <v>5.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -6526,14 +6526,14 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
         <v>44900</v>
       </c>
       <c r="D321" t="n">
-        <v>442.78</v>
+        <v>20</v>
       </c>
       <c r="E321" t="n">
         <v>0</v>
@@ -6545,17 +6545,17 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
         <v>44900</v>
       </c>
       <c r="D322" t="n">
-        <v>0</v>
+        <v>56.84</v>
       </c>
       <c r="E322" t="n">
-        <v>170.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -6564,17 +6564,17 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
         <v>44900</v>
       </c>
       <c r="D323" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E323" t="n">
-        <v>0</v>
+        <v>170.52</v>
       </c>
     </row>
     <row r="324">
@@ -6590,10 +6590,10 @@
         <v>44900</v>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>442.78</v>
       </c>
       <c r="E324" t="n">
-        <v>442.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -6609,7 +6609,7 @@
         <v>44900</v>
       </c>
       <c r="D325" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E325" t="n">
         <v>0</v>
@@ -6697,17 +6697,17 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
         <v>44903</v>
       </c>
       <c r="D330" t="n">
-        <v>0</v>
+        <v>373.54</v>
       </c>
       <c r="E330" t="n">
-        <v>25.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="E331" t="n">
-        <v>5299.34</v>
+        <v>25.01</v>
       </c>
     </row>
     <row r="332">
@@ -6735,17 +6735,17 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
         <v>44903</v>
       </c>
       <c r="D332" t="n">
-        <v>373.54</v>
+        <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>0</v>
+        <v>5299.34</v>
       </c>
     </row>
     <row r="333">
@@ -6754,17 +6754,17 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
         <v>44904</v>
       </c>
       <c r="D333" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E333" t="n">
-        <v>16.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -6773,17 +6773,17 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
         <v>44904</v>
       </c>
       <c r="D334" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E334" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -6792,17 +6792,17 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
         <v>44904</v>
       </c>
       <c r="D335" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E335" t="n">
-        <v>0</v>
+        <v>16.85</v>
       </c>
     </row>
     <row r="336">
@@ -6811,17 +6811,17 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
         <v>44904</v>
       </c>
       <c r="D336" t="n">
-        <v>15.88</v>
+        <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337">
@@ -6830,14 +6830,14 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
         <v>44904</v>
       </c>
       <c r="D337" t="n">
-        <v>30</v>
+        <v>15.88</v>
       </c>
       <c r="E337" t="n">
         <v>0</v>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>5.05</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="339">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -6878,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="E339" t="n">
-        <v>19.61</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="340">
@@ -6887,17 +6887,17 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
         <v>44907</v>
       </c>
       <c r="D340" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E340" t="n">
-        <v>115.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -6913,7 +6913,7 @@
         <v>44907</v>
       </c>
       <c r="D341" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="E341" t="n">
         <v>0</v>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>250.33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="343">
@@ -6944,17 +6944,17 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
         <v>44907</v>
       </c>
       <c r="D343" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E343" t="n">
-        <v>0</v>
+        <v>250.33</v>
       </c>
     </row>
     <row r="344">
@@ -6963,17 +6963,17 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
         <v>44907</v>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E344" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -6982,17 +6982,17 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
         <v>44907</v>
       </c>
       <c r="D345" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="346">
@@ -7020,17 +7020,17 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
         <v>44911</v>
       </c>
       <c r="D347" t="n">
-        <v>929.11</v>
+        <v>0</v>
       </c>
       <c r="E347" t="n">
-        <v>0</v>
+        <v>47.68</v>
       </c>
     </row>
     <row r="348">
@@ -7039,17 +7039,17 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
         <v>44911</v>
       </c>
       <c r="D348" t="n">
-        <v>0</v>
+        <v>929.11</v>
       </c>
       <c r="E348" t="n">
-        <v>47.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -7163,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>6.32</v>
+        <v>16.27</v>
       </c>
     </row>
     <row r="355">
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="E355" t="n">
-        <v>415.57</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="356">
@@ -7198,10 +7198,10 @@
         <v>44918</v>
       </c>
       <c r="D356" t="n">
-        <v>6.32</v>
+        <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>0</v>
+        <v>415.57</v>
       </c>
     </row>
     <row r="357">
@@ -7210,17 +7210,17 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
         <v>44918</v>
       </c>
       <c r="D357" t="n">
-        <v>0</v>
+        <v>6.32</v>
       </c>
       <c r="E357" t="n">
-        <v>16.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -7296,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="E361" t="n">
-        <v>19.93</v>
+        <v>183.95</v>
       </c>
     </row>
     <row r="362">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -7334,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="E363" t="n">
-        <v>183.95</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="364">
@@ -7362,17 +7362,17 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
         <v>44925</v>
       </c>
       <c r="D365" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="E365" t="n">
-        <v>0</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="366">
@@ -7381,14 +7381,14 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
         <v>44925</v>
       </c>
       <c r="D366" t="n">
-        <v>1006.5</v>
+        <v>0.36</v>
       </c>
       <c r="E366" t="n">
         <v>0</v>
@@ -7400,17 +7400,17 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
         <v>44925</v>
       </c>
       <c r="D367" t="n">
-        <v>0</v>
+        <v>1006.5</v>
       </c>
       <c r="E367" t="n">
-        <v>4.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -7457,17 +7457,17 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Loans</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
         <v>44929</v>
       </c>
       <c r="D370" t="n">
-        <v>0</v>
+        <v>2830</v>
       </c>
       <c r="E370" t="n">
-        <v>181.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="E371" t="n">
-        <v>29.88</v>
+        <v>181.74</v>
       </c>
     </row>
     <row r="372">
@@ -7514,17 +7514,17 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Loans</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
         <v>44929</v>
       </c>
       <c r="D373" t="n">
-        <v>2830</v>
+        <v>0</v>
       </c>
       <c r="E373" t="n">
-        <v>0</v>
+        <v>29.88</v>
       </c>
     </row>
     <row r="374">
@@ -7609,17 +7609,17 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
         <v>44933</v>
       </c>
       <c r="D378" t="n">
-        <v>0</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E378" t="n">
-        <v>95.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -7635,7 +7635,7 @@
         <v>44933</v>
       </c>
       <c r="D379" t="n">
-        <v>95.09999999999999</v>
+        <v>17.07</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>17.07</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="381">
@@ -7666,17 +7666,17 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
         <v>44933</v>
       </c>
       <c r="D381" t="n">
+        <v>0</v>
+      </c>
+      <c r="E381" t="n">
         <v>17.07</v>
-      </c>
-      <c r="E381" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -7711,10 +7711,10 @@
         <v>44936</v>
       </c>
       <c r="D383" t="n">
-        <v>0</v>
+        <v>49990</v>
       </c>
       <c r="E383" t="n">
-        <v>50050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>120</v>
+        <v>50050</v>
       </c>
     </row>
     <row r="385">
@@ -7742,17 +7742,17 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
         <v>44936</v>
       </c>
       <c r="D385" t="n">
-        <v>49990</v>
+        <v>0</v>
       </c>
       <c r="E385" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="386">
@@ -7761,17 +7761,17 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
         <v>44937</v>
       </c>
       <c r="D386" t="n">
-        <v>0</v>
+        <v>590.85</v>
       </c>
       <c r="E386" t="n">
-        <v>49.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -7799,14 +7799,14 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
         <v>44937</v>
       </c>
       <c r="D388" t="n">
-        <v>590.85</v>
+        <v>50</v>
       </c>
       <c r="E388" t="n">
         <v>0</v>
@@ -7818,17 +7818,17 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
         <v>44937</v>
       </c>
       <c r="D389" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E389" t="n">
-        <v>0</v>
+        <v>49.27</v>
       </c>
     </row>
     <row r="390">
@@ -7970,17 +7970,17 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
         <v>44945</v>
       </c>
       <c r="D397" t="n">
-        <v>27.26</v>
+        <v>0</v>
       </c>
       <c r="E397" t="n">
-        <v>0</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="398">
@@ -7989,17 +7989,17 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
         <v>44945</v>
       </c>
       <c r="D398" t="n">
-        <v>0</v>
+        <v>27.26</v>
       </c>
       <c r="E398" t="n">
-        <v>25.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -8027,17 +8027,17 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
         <v>44946</v>
       </c>
       <c r="D400" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>0</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="401">
@@ -8046,17 +8046,17 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
         <v>44946</v>
       </c>
       <c r="D401" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E401" t="n">
-        <v>983.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>28.24</v>
+        <v>983.63</v>
       </c>
     </row>
     <row r="403">
@@ -8122,17 +8122,17 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Misc</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
         <v>44949</v>
       </c>
       <c r="D405" t="n">
-        <v>0</v>
+        <v>10.15</v>
       </c>
       <c r="E405" t="n">
-        <v>47.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -8141,17 +8141,17 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
         <v>44949</v>
       </c>
       <c r="D406" t="n">
-        <v>10.15</v>
+        <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>0</v>
+        <v>47.82</v>
       </c>
     </row>
     <row r="407">
@@ -8224,7 +8224,7 @@
         <v>44957</v>
       </c>
       <c r="D410" t="n">
-        <v>0.13</v>
+        <v>11.5</v>
       </c>
       <c r="E410" t="n">
         <v>0</v>
@@ -8243,7 +8243,7 @@
         <v>44957</v>
       </c>
       <c r="D411" t="n">
-        <v>11.5</v>
+        <v>0.01</v>
       </c>
       <c r="E411" t="n">
         <v>0</v>
@@ -8262,7 +8262,7 @@
         <v>44957</v>
       </c>
       <c r="D412" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E412" t="n">
         <v>0</v>
@@ -8274,17 +8274,17 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
         <v>44958</v>
       </c>
       <c r="D413" t="n">
-        <v>0</v>
+        <v>1335.88</v>
       </c>
       <c r="E413" t="n">
-        <v>983.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -8293,17 +8293,17 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
         <v>44958</v>
       </c>
       <c r="D414" t="n">
-        <v>1335.88</v>
+        <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>0</v>
+        <v>983.63</v>
       </c>
     </row>
     <row r="415">
@@ -8319,10 +8319,10 @@
         <v>44959</v>
       </c>
       <c r="D415" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E415" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="416">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -8341,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>100</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="417">
@@ -8379,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>10.95</v>
+        <v>20.53</v>
       </c>
     </row>
     <row r="419">
@@ -8388,17 +8388,17 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
         <v>44959</v>
       </c>
       <c r="D419" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E419" t="n">
-        <v>20.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>20.66</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="423">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="E423" t="n">
-        <v>13.79</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="424">
@@ -8483,14 +8483,14 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
         <v>44963</v>
       </c>
       <c r="D424" t="n">
-        <v>10</v>
+        <v>56.84</v>
       </c>
       <c r="E424" t="n">
         <v>0</v>
@@ -8502,14 +8502,14 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
         <v>44963</v>
       </c>
       <c r="D425" t="n">
-        <v>56.84</v>
+        <v>10</v>
       </c>
       <c r="E425" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>44967</v>
       </c>
       <c r="D427" t="n">
-        <v>294.59</v>
+        <v>0</v>
       </c>
       <c r="E427" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="428">
@@ -8559,7 +8559,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -8569,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>16.66</v>
+        <v>294.59</v>
       </c>
     </row>
     <row r="429">
@@ -8578,17 +8578,17 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
         <v>44967</v>
       </c>
       <c r="D429" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="E429" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -8607,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>294.59</v>
+        <v>16.66</v>
       </c>
     </row>
     <row r="431">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -8661,7 +8661,7 @@
         <v>44967</v>
       </c>
       <c r="D433" t="n">
-        <v>5.75</v>
+        <v>294.59</v>
       </c>
       <c r="E433" t="n">
         <v>0</v>
@@ -8680,7 +8680,7 @@
         <v>44972</v>
       </c>
       <c r="D434" t="n">
-        <v>26.44</v>
+        <v>30.66</v>
       </c>
       <c r="E434" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>44972</v>
       </c>
       <c r="D435" t="n">
-        <v>11.13</v>
+        <v>36.43</v>
       </c>
       <c r="E435" t="n">
         <v>0</v>
@@ -8711,17 +8711,17 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="D436" t="n">
-        <v>0</v>
+        <v>11.13</v>
       </c>
       <c r="E436" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -8730,17 +8730,17 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="D437" t="n">
-        <v>0</v>
+        <v>26.44</v>
       </c>
       <c r="E437" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -8749,17 +8749,17 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="D438" t="n">
-        <v>36.43</v>
+        <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="439">
@@ -8768,14 +8768,14 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="D439" t="n">
-        <v>30.66</v>
+        <v>1313.07</v>
       </c>
       <c r="E439" t="n">
         <v>0</v>
@@ -8787,17 +8787,17 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="D440" t="n">
-        <v>1313.07</v>
+        <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>0</v>
+        <v>90.31999999999999</v>
       </c>
     </row>
     <row r="441">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="E441" t="n">
-        <v>90.31999999999999</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="442">
@@ -8889,10 +8889,10 @@
         <v>44973</v>
       </c>
       <c r="D445" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E445" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -8901,17 +8901,17 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
         <v>44973</v>
       </c>
       <c r="D446" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>0</v>
+        <v>307.66</v>
       </c>
     </row>
     <row r="447">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Misc</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="E447" t="n">
-        <v>307.66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="448">
@@ -8939,7 +8939,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -8949,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
     </row>
     <row r="449">
@@ -8968,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="E449" t="n">
-        <v>47.6</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="450">
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>11.96</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="451">
@@ -8996,17 +8996,17 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
         <v>44978</v>
       </c>
       <c r="D451" t="n">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="E451" t="n">
-        <v>0</v>
+        <v>129.35</v>
       </c>
     </row>
     <row r="452">
@@ -9015,17 +9015,17 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
         <v>44978</v>
       </c>
       <c r="D452" t="n">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E452" t="n">
-        <v>129.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Misc</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="E455" t="n">
-        <v>38.34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="456">
@@ -9091,7 +9091,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>7</v>
+        <v>38.34</v>
       </c>
     </row>
     <row r="457">
@@ -9120,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="E457" t="n">
-        <v>47.6</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="458">
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>12.65</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="459">
@@ -9167,17 +9167,17 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
         <v>44985</v>
       </c>
       <c r="D460" t="n">
-        <v>16.19</v>
+        <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="461">
@@ -9186,17 +9186,17 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
         <v>44985</v>
       </c>
       <c r="D461" t="n">
-        <v>15.57</v>
+        <v>0</v>
       </c>
       <c r="E461" t="n">
-        <v>0</v>
+        <v>46.53</v>
       </c>
     </row>
     <row r="462">
@@ -9205,17 +9205,17 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
         <v>44985</v>
       </c>
       <c r="D462" t="n">
-        <v>0</v>
+        <v>16.19</v>
       </c>
       <c r="E462" t="n">
-        <v>46.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -9224,17 +9224,17 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
         <v>44985</v>
       </c>
       <c r="D463" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E463" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -9243,14 +9243,14 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
         <v>44985</v>
       </c>
       <c r="D464" t="n">
-        <v>0.05</v>
+        <v>16.18</v>
       </c>
       <c r="E464" t="n">
         <v>0</v>
@@ -9262,14 +9262,14 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
         <v>44985</v>
       </c>
       <c r="D465" t="n">
-        <v>16.18</v>
+        <v>15.57</v>
       </c>
       <c r="E465" t="n">
         <v>0</v>
@@ -9281,17 +9281,17 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C466" s="2" t="n">
         <v>44986</v>
       </c>
       <c r="D466" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E466" t="n">
-        <v>68.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -9307,10 +9307,10 @@
         <v>44986</v>
       </c>
       <c r="D467" t="n">
-        <v>0</v>
+        <v>311.38</v>
       </c>
       <c r="E467" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C468" s="2" t="n">
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>13.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="469">
@@ -9338,7 +9338,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E469" t="n">
-        <v>6.66</v>
+        <v>311.38</v>
       </c>
     </row>
     <row r="470">
@@ -9357,17 +9357,17 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C470" s="2" t="n">
         <v>44986</v>
       </c>
       <c r="D470" t="n">
-        <v>1313.07</v>
+        <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>0</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="471">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="E471" t="n">
-        <v>983.63</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="472">
@@ -9395,7 +9395,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
@@ -9405,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>311.38</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="473">
@@ -9433,17 +9433,17 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
         <v>44986</v>
       </c>
       <c r="D474" t="n">
-        <v>0</v>
+        <v>1313.07</v>
       </c>
       <c r="E474" t="n">
-        <v>6.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -9452,17 +9452,17 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
         <v>44986</v>
       </c>
       <c r="D475" t="n">
-        <v>311.38</v>
+        <v>0</v>
       </c>
       <c r="E475" t="n">
-        <v>0</v>
+        <v>983.63</v>
       </c>
     </row>
     <row r="476">
@@ -9471,17 +9471,17 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">
         <v>44986</v>
       </c>
       <c r="D476" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>0</v>
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="477">
@@ -9528,17 +9528,17 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C479" s="2" t="n">
         <v>44991</v>
       </c>
       <c r="D479" t="n">
-        <v>42.6</v>
+        <v>0</v>
       </c>
       <c r="E479" t="n">
-        <v>0</v>
+        <v>78.17</v>
       </c>
     </row>
     <row r="480">
@@ -9557,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>10.93</v>
+        <v>169.53</v>
       </c>
     </row>
     <row r="481">
@@ -9566,17 +9566,17 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C481" s="2" t="n">
         <v>44991</v>
       </c>
       <c r="D481" t="n">
-        <v>439.44</v>
+        <v>0</v>
       </c>
       <c r="E481" t="n">
-        <v>0</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="482">
@@ -9585,7 +9585,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
@@ -9595,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="E482" t="n">
-        <v>397.9</v>
+        <v>439.44</v>
       </c>
     </row>
     <row r="483">
@@ -9604,17 +9604,17 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C483" s="2" t="n">
         <v>44991</v>
       </c>
       <c r="D483" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="E483" t="n">
-        <v>42.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -9623,7 +9623,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C484" s="2" t="n">
@@ -9633,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="E484" t="n">
-        <v>439.44</v>
+        <v>397.9</v>
       </c>
     </row>
     <row r="485">
@@ -9642,17 +9642,17 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C485" s="2" t="n">
         <v>44991</v>
       </c>
       <c r="D485" t="n">
-        <v>0</v>
+        <v>439.44</v>
       </c>
       <c r="E485" t="n">
-        <v>169.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -9661,14 +9661,14 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C486" s="2" t="n">
         <v>44991</v>
       </c>
       <c r="D486" t="n">
-        <v>41.6</v>
+        <v>42.6</v>
       </c>
       <c r="E486" t="n">
         <v>0</v>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C487" s="2" t="n">
@@ -9690,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="E487" t="n">
-        <v>78.17</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="488">
@@ -9775,17 +9775,17 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C492" s="2" t="n">
         <v>44998</v>
       </c>
       <c r="D492" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E492" t="n">
-        <v>10.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -9813,17 +9813,17 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C494" s="2" t="n">
         <v>44998</v>
       </c>
       <c r="D494" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>0</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="495">
@@ -9832,17 +9832,17 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C495" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="D495" t="n">
-        <v>1313.07</v>
+        <v>0</v>
       </c>
       <c r="E495" t="n">
-        <v>0</v>
+        <v>145.01</v>
       </c>
     </row>
     <row r="496">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C496" s="2" t="n">
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>145.01</v>
+        <v>5</v>
       </c>
     </row>
     <row r="497">
@@ -9870,17 +9870,17 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C497" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="D497" t="n">
-        <v>0</v>
+        <v>1313.07</v>
       </c>
       <c r="E497" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>97</v>
+        <v>50</v>
       </c>
     </row>
     <row r="507">
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="E507" t="n">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="508">
@@ -10124,10 +10124,10 @@
         <v>45012</v>
       </c>
       <c r="D510" t="n">
+        <v>0</v>
+      </c>
+      <c r="E510" t="n">
         <v>14.04</v>
-      </c>
-      <c r="E510" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C511" s="2" t="n">
@@ -10146,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="E511" t="n">
-        <v>14.04</v>
+        <v>317.76</v>
       </c>
     </row>
     <row r="512">
@@ -10155,17 +10155,17 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C512" s="2" t="n">
         <v>45012</v>
       </c>
       <c r="D512" t="n">
-        <v>0</v>
+        <v>14.04</v>
       </c>
       <c r="E512" t="n">
-        <v>317.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -10250,17 +10250,17 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C517" s="2" t="n">
         <v>45015</v>
       </c>
       <c r="D517" t="n">
-        <v>0</v>
+        <v>723.78</v>
       </c>
       <c r="E517" t="n">
-        <v>25.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -10269,17 +10269,17 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C518" s="2" t="n">
         <v>45015</v>
       </c>
       <c r="D518" t="n">
-        <v>723.78</v>
+        <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>0</v>
+        <v>25.01</v>
       </c>
     </row>
     <row r="519">
@@ -10288,7 +10288,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C519" s="2" t="n">
@@ -10298,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="E519" t="n">
-        <v>2</v>
+        <v>18.51</v>
       </c>
     </row>
     <row r="520">
@@ -10314,7 +10314,7 @@
         <v>45016</v>
       </c>
       <c r="D520" t="n">
-        <v>17.38</v>
+        <v>0.05</v>
       </c>
       <c r="E520" t="n">
         <v>0</v>
@@ -10333,7 +10333,7 @@
         <v>45016</v>
       </c>
       <c r="D521" t="n">
-        <v>0.05</v>
+        <v>17.38</v>
       </c>
       <c r="E521" t="n">
         <v>0</v>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C522" s="2" t="n">
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>18.51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523">
@@ -10440,14 +10440,14 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C527" s="2" t="n">
         <v>45022</v>
       </c>
       <c r="D527" t="n">
-        <v>1670</v>
+        <v>58.5</v>
       </c>
       <c r="E527" t="n">
         <v>0</v>
@@ -10459,14 +10459,14 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C528" s="2" t="n">
         <v>45022</v>
       </c>
       <c r="D528" t="n">
-        <v>58.5</v>
+        <v>1670</v>
       </c>
       <c r="E528" t="n">
         <v>0</v>
@@ -10497,7 +10497,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C530" s="2" t="n">
@@ -10507,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>45.98</v>
+        <v>5</v>
       </c>
     </row>
     <row r="531">
@@ -10516,7 +10516,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C531" s="2" t="n">
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="E531" t="n">
-        <v>5</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="532">
@@ -10564,7 +10564,7 @@
         <v>0</v>
       </c>
       <c r="E533" t="n">
-        <v>8.33</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="534">
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>14.36</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="535">
@@ -10675,10 +10675,10 @@
         <v>45030</v>
       </c>
       <c r="D539" t="n">
-        <v>0</v>
+        <v>1105.6</v>
       </c>
       <c r="E539" t="n">
-        <v>530.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -10687,17 +10687,17 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C540" s="2" t="n">
         <v>45030</v>
       </c>
       <c r="D540" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="E540" t="n">
-        <v>159.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -10706,17 +10706,17 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C541" s="2" t="n">
         <v>45030</v>
       </c>
       <c r="D541" t="n">
-        <v>1105.6</v>
+        <v>0</v>
       </c>
       <c r="E541" t="n">
-        <v>0</v>
+        <v>159.66</v>
       </c>
     </row>
     <row r="542">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C542" s="2" t="n">
@@ -10735,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>100.45</v>
+        <v>530.51</v>
       </c>
     </row>
     <row r="543">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C544" s="2" t="n">
@@ -10773,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>5.75</v>
+        <v>100.45</v>
       </c>
     </row>
     <row r="545">
@@ -10789,10 +10789,10 @@
         <v>45030</v>
       </c>
       <c r="D545" t="n">
+        <v>0</v>
+      </c>
+      <c r="E545" t="n">
         <v>5.75</v>
-      </c>
-      <c r="E545" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -10858,7 +10858,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C549" s="2" t="n">
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="E549" t="n">
-        <v>5000</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="550">
@@ -10877,17 +10877,17 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="C550" s="2" t="n">
         <v>45035</v>
       </c>
       <c r="D550" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="551">
@@ -10903,7 +10903,7 @@
         <v>45035</v>
       </c>
       <c r="D551" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E551" t="n">
         <v>0</v>
@@ -10915,17 +10915,17 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C552" s="2" t="n">
         <v>45035</v>
       </c>
       <c r="D552" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E552" t="n">
-        <v>8.859999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -10982,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="E555" t="n">
-        <v>8.65</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="556">
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>6.84</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="557">
@@ -11010,7 +11010,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C557" s="2" t="n">
@@ -11055,10 +11055,10 @@
         <v>45043</v>
       </c>
       <c r="D559" t="n">
-        <v>139.89</v>
+        <v>0</v>
       </c>
       <c r="E559" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="560">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>139.89</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="561">
@@ -11093,10 +11093,10 @@
         <v>45043</v>
       </c>
       <c r="D561" t="n">
-        <v>0</v>
+        <v>139.89</v>
       </c>
       <c r="E561" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
@@ -11105,17 +11105,17 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C562" s="2" t="n">
         <v>45043</v>
       </c>
       <c r="D562" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E562" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -11131,10 +11131,10 @@
         <v>45043</v>
       </c>
       <c r="D563" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E563" t="n">
-        <v>0</v>
+        <v>139.89</v>
       </c>
     </row>
     <row r="564">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C564" s="2" t="n">
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>1000</v>
+        <v>25.01</v>
       </c>
     </row>
     <row r="565">
@@ -11162,7 +11162,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C565" s="2" t="n">
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="E565" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="566">
@@ -11181,7 +11181,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C566" s="2" t="n">
@@ -11191,7 +11191,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>25.01</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="567">
@@ -11207,7 +11207,7 @@
         <v>45044</v>
       </c>
       <c r="D567" t="n">
-        <v>0.04</v>
+        <v>17.05</v>
       </c>
       <c r="E567" t="n">
         <v>0</v>
@@ -11219,7 +11219,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C568" s="2" t="n">
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>74.75</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="569">
@@ -11238,17 +11238,17 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C569" s="2" t="n">
         <v>45044</v>
       </c>
       <c r="D569" t="n">
-        <v>17.05</v>
+        <v>0</v>
       </c>
       <c r="E569" t="n">
-        <v>0</v>
+        <v>74.75</v>
       </c>
     </row>
     <row r="570">
@@ -11257,17 +11257,17 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C570" s="2" t="n">
         <v>45044</v>
       </c>
       <c r="D570" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E570" t="n">
-        <v>16.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -11276,14 +11276,14 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C571" s="2" t="n">
         <v>45046</v>
       </c>
       <c r="D571" t="n">
-        <v>0.04</v>
+        <v>15.74</v>
       </c>
       <c r="E571" t="n">
         <v>0</v>
@@ -11295,14 +11295,14 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C572" s="2" t="n">
         <v>45046</v>
       </c>
       <c r="D572" t="n">
-        <v>15.74</v>
+        <v>0.04</v>
       </c>
       <c r="E572" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C573" s="2" t="n">
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="E573" t="n">
-        <v>983.63</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="574">
@@ -11333,17 +11333,17 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C574" s="2" t="n">
         <v>45047</v>
       </c>
       <c r="D574" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="E574" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
@@ -11362,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="E575" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="576">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C576" s="2" t="n">
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>2000</v>
+        <v>983.63</v>
       </c>
     </row>
     <row r="577">
@@ -11390,14 +11390,14 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C577" s="2" t="n">
         <v>45047</v>
       </c>
       <c r="D577" t="n">
-        <v>41.6</v>
+        <v>720</v>
       </c>
       <c r="E577" t="n">
         <v>0</v>
@@ -11409,7 +11409,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C578" s="2" t="n">
@@ -11419,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>45.99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="579">
@@ -11435,10 +11435,10 @@
         <v>45047</v>
       </c>
       <c r="D579" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E579" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="580">
@@ -11485,7 +11485,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C582" s="2" t="n">
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>3.29</v>
+        <v>172.86</v>
       </c>
     </row>
     <row r="583">
@@ -11504,7 +11504,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C583" s="2" t="n">
@@ -11514,7 +11514,7 @@
         <v>0</v>
       </c>
       <c r="E583" t="n">
-        <v>172.86</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="584">
@@ -11523,7 +11523,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C584" s="2" t="n">
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>61.1</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="585">
@@ -11542,7 +11542,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C585" s="2" t="n">
@@ -11552,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="E585" t="n">
-        <v>53.74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="586">
@@ -11561,17 +11561,17 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C586" s="2" t="n">
         <v>45050</v>
       </c>
       <c r="D586" t="n">
-        <v>0</v>
+        <v>53.74</v>
       </c>
       <c r="E586" t="n">
-        <v>188.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -11580,17 +11580,17 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C587" s="2" t="n">
         <v>45050</v>
       </c>
       <c r="D587" t="n">
-        <v>53.74</v>
+        <v>0</v>
       </c>
       <c r="E587" t="n">
-        <v>0</v>
+        <v>188.06</v>
       </c>
     </row>
     <row r="588">
@@ -11599,17 +11599,17 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C588" s="2" t="n">
         <v>45050</v>
       </c>
       <c r="D588" t="n">
-        <v>495.4</v>
+        <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>0</v>
+        <v>53.74</v>
       </c>
     </row>
     <row r="589">
@@ -11618,17 +11618,17 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Misc</t>
         </is>
       </c>
       <c r="C589" s="2" t="n">
         <v>45050</v>
       </c>
       <c r="D589" t="n">
-        <v>0</v>
+        <v>495.4</v>
       </c>
       <c r="E589" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
@@ -11637,14 +11637,14 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C590" s="2" t="n">
         <v>45051</v>
       </c>
       <c r="D590" t="n">
-        <v>125</v>
+        <v>3.38</v>
       </c>
       <c r="E590" t="n">
         <v>0</v>
@@ -11656,17 +11656,17 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C591" s="2" t="n">
         <v>45051</v>
       </c>
       <c r="D591" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E591" t="n">
-        <v>128.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -11685,7 +11685,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>60.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="593">
@@ -11694,7 +11694,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C593" s="2" t="n">
@@ -11704,7 +11704,7 @@
         <v>0</v>
       </c>
       <c r="E593" t="n">
-        <v>13000</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="594">
@@ -11713,7 +11713,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="C594" s="2" t="n">
@@ -11723,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>4.3</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="595">
@@ -11732,17 +11732,17 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C595" s="2" t="n">
         <v>45051</v>
       </c>
       <c r="D595" t="n">
-        <v>3.38</v>
+        <v>0</v>
       </c>
       <c r="E595" t="n">
-        <v>0</v>
+        <v>128.6</v>
       </c>
     </row>
     <row r="596">
@@ -11770,17 +11770,17 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C597" s="2" t="n">
         <v>45054</v>
       </c>
       <c r="D597" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E597" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -11789,7 +11789,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C598" s="2" t="n">
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>364.21</v>
+        <v>97.31999999999999</v>
       </c>
     </row>
     <row r="599">
@@ -11808,17 +11808,17 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C599" s="2" t="n">
         <v>45054</v>
       </c>
       <c r="D599" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E599" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="600">
@@ -11827,14 +11827,14 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C600" s="2" t="n">
         <v>45054</v>
       </c>
       <c r="D600" t="n">
-        <v>48</v>
+        <v>2000</v>
       </c>
       <c r="E600" t="n">
         <v>0</v>
@@ -11856,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="E601" t="n">
-        <v>97.31999999999999</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="602">
@@ -11865,7 +11865,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C602" s="2" t="n">
@@ -11875,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="E602" t="n">
-        <v>140</v>
+        <v>364.21</v>
       </c>
     </row>
     <row r="603">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Misc</t>
         </is>
       </c>
       <c r="C603" s="2" t="n">
@@ -11894,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="E603" t="n">
-        <v>25.25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="604">
@@ -11979,17 +11979,17 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C608" s="2" t="n">
         <v>45057</v>
       </c>
       <c r="D608" t="n">
-        <v>0</v>
+        <v>14.69</v>
       </c>
       <c r="E608" t="n">
-        <v>14.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
@@ -11998,7 +11998,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C609" s="2" t="n">
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="E609" t="n">
-        <v>25.01</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="610">
@@ -12027,7 +12027,7 @@
         <v>0</v>
       </c>
       <c r="E610" t="n">
-        <v>625</v>
+        <v>25.01</v>
       </c>
     </row>
     <row r="611">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C611" s="2" t="n">
@@ -12046,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="E611" t="n">
-        <v>37.7</v>
+        <v>14.93</v>
       </c>
     </row>
     <row r="612">
@@ -12055,17 +12055,17 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C612" s="2" t="n">
         <v>45057</v>
       </c>
       <c r="D612" t="n">
-        <v>14.69</v>
+        <v>0</v>
       </c>
       <c r="E612" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
     </row>
     <row r="613">
@@ -12093,17 +12093,17 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C614" s="2" t="n">
         <v>45058</v>
       </c>
       <c r="D614" t="n">
-        <v>1543.35</v>
+        <v>0</v>
       </c>
       <c r="E614" t="n">
-        <v>0</v>
+        <v>831.53</v>
       </c>
     </row>
     <row r="615">
@@ -12112,17 +12112,17 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C615" s="2" t="n">
         <v>45058</v>
       </c>
       <c r="D615" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="E615" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="616">
@@ -12131,17 +12131,17 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C616" s="2" t="n">
         <v>45058</v>
       </c>
       <c r="D616" t="n">
-        <v>0</v>
+        <v>1543.35</v>
       </c>
       <c r="E616" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
@@ -12150,17 +12150,17 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C617" s="2" t="n">
         <v>45058</v>
       </c>
       <c r="D617" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E617" t="n">
-        <v>831.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
@@ -12179,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="E618" t="n">
-        <v>104.37</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="619">
@@ -12198,7 +12198,7 @@
         <v>0</v>
       </c>
       <c r="E619" t="n">
-        <v>16.8</v>
+        <v>104.37</v>
       </c>
     </row>
     <row r="620">
@@ -12207,17 +12207,17 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C620" s="2" t="n">
         <v>45061</v>
       </c>
       <c r="D620" t="n">
-        <v>34.79</v>
+        <v>0</v>
       </c>
       <c r="E620" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
     </row>
     <row r="621">
@@ -12233,7 +12233,7 @@
         <v>45061</v>
       </c>
       <c r="D621" t="n">
-        <v>81</v>
+        <v>34.79</v>
       </c>
       <c r="E621" t="n">
         <v>0</v>
@@ -12245,14 +12245,14 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C622" s="2" t="n">
         <v>45061</v>
       </c>
       <c r="D622" t="n">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="E622" t="n">
         <v>0</v>
@@ -12264,14 +12264,14 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C623" s="2" t="n">
         <v>45061</v>
       </c>
       <c r="D623" t="n">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="E623" t="n">
         <v>0</v>
@@ -12283,17 +12283,17 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C624" s="2" t="n">
         <v>45061</v>
       </c>
       <c r="D624" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E624" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
@@ -12340,7 +12340,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C627" s="2" t="n">
@@ -12350,7 +12350,7 @@
         <v>0</v>
       </c>
       <c r="E627" t="n">
-        <v>12.59</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="628">
@@ -12359,7 +12359,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C628" s="2" t="n">
@@ -12369,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="E628" t="n">
-        <v>3000</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="629">
@@ -12435,17 +12435,17 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C632" s="2" t="n">
         <v>45064</v>
       </c>
       <c r="D632" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E632" t="n">
-        <v>0</v>
+        <v>1690.23</v>
       </c>
     </row>
     <row r="633">
@@ -12454,14 +12454,14 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C633" s="2" t="n">
         <v>45064</v>
       </c>
       <c r="D633" t="n">
-        <v>4695.23</v>
+        <v>76</v>
       </c>
       <c r="E633" t="n">
         <v>0</v>
@@ -12473,17 +12473,17 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C634" s="2" t="n">
         <v>45064</v>
       </c>
       <c r="D634" t="n">
-        <v>0</v>
+        <v>50.72</v>
       </c>
       <c r="E634" t="n">
-        <v>21.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
@@ -12492,17 +12492,17 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="C635" s="2" t="n">
         <v>45064</v>
       </c>
       <c r="D635" t="n">
-        <v>0</v>
+        <v>4695.23</v>
       </c>
       <c r="E635" t="n">
-        <v>299.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
@@ -12511,7 +12511,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C636" s="2" t="n">
@@ -12521,7 +12521,7 @@
         <v>0</v>
       </c>
       <c r="E636" t="n">
-        <v>1690.23</v>
+        <v>299.05</v>
       </c>
     </row>
     <row r="637">
@@ -12530,17 +12530,17 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C637" s="2" t="n">
         <v>45064</v>
       </c>
       <c r="D637" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E637" t="n">
-        <v>0</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="638">
@@ -12556,7 +12556,7 @@
         <v>45064</v>
       </c>
       <c r="D638" t="n">
-        <v>50.72</v>
+        <v>1100</v>
       </c>
       <c r="E638" t="n">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>45065</v>
       </c>
       <c r="D639" t="n">
-        <v>53.97</v>
+        <v>37.68</v>
       </c>
       <c r="E639" t="n">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>45065</v>
       </c>
       <c r="D640" t="n">
-        <v>37.68</v>
+        <v>53.97</v>
       </c>
       <c r="E640" t="n">
         <v>0</v>
@@ -12654,7 +12654,7 @@
         <v>0</v>
       </c>
       <c r="E643" t="n">
-        <v>615.34</v>
+        <v>651.46</v>
       </c>
     </row>
     <row r="644">
@@ -12663,7 +12663,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C644" s="2" t="n">
@@ -12673,7 +12673,7 @@
         <v>0</v>
       </c>
       <c r="E644" t="n">
-        <v>25.01</v>
+        <v>166.88</v>
       </c>
     </row>
     <row r="645">
@@ -12701,7 +12701,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C646" s="2" t="n">
@@ -12711,7 +12711,7 @@
         <v>0</v>
       </c>
       <c r="E646" t="n">
-        <v>651.46</v>
+        <v>25.01</v>
       </c>
     </row>
     <row r="647">
@@ -12720,7 +12720,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C647" s="2" t="n">
@@ -12730,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="E647" t="n">
-        <v>166.88</v>
+        <v>615.34</v>
       </c>
     </row>
     <row r="648">
@@ -12739,14 +12739,14 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C648" s="2" t="n">
         <v>45072</v>
       </c>
       <c r="D648" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E648" t="n">
         <v>0</v>
@@ -12765,7 +12765,7 @@
         <v>45072</v>
       </c>
       <c r="D649" t="n">
-        <v>349.95</v>
+        <v>85.22</v>
       </c>
       <c r="E649" t="n">
         <v>0</v>
@@ -12796,17 +12796,17 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C651" s="2" t="n">
         <v>45072</v>
       </c>
       <c r="D651" t="n">
-        <v>651.46</v>
+        <v>0</v>
       </c>
       <c r="E651" t="n">
-        <v>0</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="652">
@@ -12815,17 +12815,17 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C652" s="2" t="n">
         <v>45072</v>
       </c>
       <c r="D652" t="n">
-        <v>0</v>
+        <v>651.46</v>
       </c>
       <c r="E652" t="n">
-        <v>9.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -12860,10 +12860,10 @@
         <v>45072</v>
       </c>
       <c r="D654" t="n">
-        <v>0</v>
+        <v>349.95</v>
       </c>
       <c r="E654" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -12879,7 +12879,7 @@
         <v>45072</v>
       </c>
       <c r="D655" t="n">
-        <v>85.22</v>
+        <v>27</v>
       </c>
       <c r="E655" t="n">
         <v>0</v>
@@ -12891,17 +12891,17 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C656" s="2" t="n">
         <v>45072</v>
       </c>
       <c r="D656" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E656" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="657">
@@ -12910,7 +12910,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C657" s="2" t="n">
@@ -12920,7 +12920,7 @@
         <v>0</v>
       </c>
       <c r="E657" t="n">
-        <v>4.97</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="658">
@@ -12939,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="E658" t="n">
-        <v>7.29</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="659">
@@ -12958,7 +12958,7 @@
         <v>0</v>
       </c>
       <c r="E659" t="n">
-        <v>0.37</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="660">
@@ -12967,7 +12967,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C660" s="2" t="n">
@@ -12977,7 +12977,7 @@
         <v>0</v>
       </c>
       <c r="E660" t="n">
-        <v>5.75</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="661">
@@ -12986,17 +12986,17 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C661" s="2" t="n">
         <v>45075</v>
       </c>
       <c r="D661" t="n">
-        <v>38.11</v>
+        <v>0</v>
       </c>
       <c r="E661" t="n">
-        <v>0</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="662">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C662" s="2" t="n">
@@ -13015,7 +13015,7 @@
         <v>0</v>
       </c>
       <c r="E662" t="n">
-        <v>14.87</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="663">
@@ -13024,17 +13024,17 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C663" s="2" t="n">
         <v>45075</v>
       </c>
       <c r="D663" t="n">
-        <v>0</v>
+        <v>38.11</v>
       </c>
       <c r="E663" t="n">
-        <v>8.529999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
@@ -13081,17 +13081,17 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C666" s="2" t="n">
         <v>45077</v>
       </c>
       <c r="D666" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E666" t="n">
-        <v>83.98999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -13107,7 +13107,7 @@
         <v>45077</v>
       </c>
       <c r="D667" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E667" t="n">
         <v>0</v>
@@ -13119,17 +13119,17 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="C668" s="2" t="n">
         <v>45077</v>
       </c>
       <c r="D668" t="n">
-        <v>7.96</v>
+        <v>0</v>
       </c>
       <c r="E668" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="669">
@@ -13138,17 +13138,17 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="C669" s="2" t="n">
         <v>45077</v>
       </c>
       <c r="D669" t="n">
-        <v>0</v>
+        <v>7.96</v>
       </c>
       <c r="E669" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -13157,17 +13157,17 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C670" s="2" t="n">
         <v>45077</v>
       </c>
       <c r="D670" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E670" t="n">
-        <v>0</v>
+        <v>83.98999999999999</v>
       </c>
     </row>
     <row r="671">
@@ -13233,17 +13233,17 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C674" s="2" t="n">
         <v>45078</v>
       </c>
       <c r="D674" t="n">
-        <v>68.5</v>
+        <v>0</v>
       </c>
       <c r="E674" t="n">
-        <v>0</v>
+        <v>212.79</v>
       </c>
     </row>
     <row r="675">
@@ -13271,17 +13271,17 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Rent &amp; Utilities</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C676" s="2" t="n">
         <v>45078</v>
       </c>
       <c r="D676" t="n">
-        <v>0</v>
+        <v>68.5</v>
       </c>
       <c r="E676" t="n">
-        <v>983.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
@@ -13290,7 +13290,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Rent &amp; Utilities</t>
         </is>
       </c>
       <c r="C677" s="2" t="n">
@@ -13300,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="E677" t="n">
-        <v>212.79</v>
+        <v>983.63</v>
       </c>
     </row>
     <row r="678">
@@ -13328,17 +13328,17 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C679" s="2" t="n">
         <v>45079</v>
       </c>
       <c r="D679" t="n">
-        <v>0</v>
+        <v>768.63</v>
       </c>
       <c r="E679" t="n">
-        <v>79.65000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
@@ -13347,17 +13347,17 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C680" s="2" t="n">
         <v>45079</v>
       </c>
       <c r="D680" t="n">
-        <v>768.63</v>
+        <v>0</v>
       </c>
       <c r="E680" t="n">
-        <v>0</v>
+        <v>79.65000000000001</v>
       </c>
     </row>
     <row r="681">
@@ -13385,7 +13385,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C682" s="2" t="n">
@@ -13395,7 +13395,7 @@
         <v>0</v>
       </c>
       <c r="E682" t="n">
-        <v>460.68</v>
+        <v>863.52</v>
       </c>
     </row>
     <row r="683">
@@ -13404,17 +13404,17 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C683" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D683" t="n">
-        <v>0</v>
+        <v>460.68</v>
       </c>
       <c r="E683" t="n">
-        <v>50.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
@@ -13442,17 +13442,17 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C685" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D685" t="n">
-        <v>460.68</v>
+        <v>0</v>
       </c>
       <c r="E685" t="n">
-        <v>0</v>
+        <v>50.99</v>
       </c>
     </row>
     <row r="686">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C687" s="2" t="n">
@@ -13490,7 +13490,7 @@
         <v>0</v>
       </c>
       <c r="E687" t="n">
-        <v>863.52</v>
+        <v>460.68</v>
       </c>
     </row>
     <row r="688">
@@ -13518,17 +13518,17 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C689" s="2" t="n">
         <v>45082</v>
       </c>
       <c r="D689" t="n">
-        <v>71.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="E689" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="690">
@@ -13544,10 +13544,10 @@
         <v>45082</v>
       </c>
       <c r="D690" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="E690" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691">
@@ -13563,10 +13563,10 @@
         <v>45082</v>
       </c>
       <c r="D691" t="n">
-        <v>0</v>
+        <v>996.4</v>
       </c>
       <c r="E691" t="n">
-        <v>996.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
@@ -13585,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="E692" t="n">
-        <v>22.28</v>
+        <v>54.82</v>
       </c>
     </row>
     <row r="693">
@@ -13594,7 +13594,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C693" s="2" t="n">
@@ -13604,7 +13604,7 @@
         <v>0</v>
       </c>
       <c r="E693" t="n">
-        <v>5.37</v>
+        <v>22.28</v>
       </c>
     </row>
     <row r="694">
@@ -13613,17 +13613,17 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C694" s="2" t="n">
         <v>45082</v>
       </c>
       <c r="D694" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E694" t="n">
-        <v>0</v>
+        <v>996.4</v>
       </c>
     </row>
     <row r="695">
@@ -13632,17 +13632,17 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C695" s="2" t="n">
         <v>45082</v>
       </c>
       <c r="D695" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E695" t="n">
-        <v>0</v>
+        <v>68.91</v>
       </c>
     </row>
     <row r="696">
@@ -13651,14 +13651,14 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C696" s="2" t="n">
         <v>45082</v>
       </c>
       <c r="D696" t="n">
-        <v>996.4</v>
+        <v>60</v>
       </c>
       <c r="E696" t="n">
         <v>0</v>
@@ -13670,17 +13670,17 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C697" s="2" t="n">
         <v>45082</v>
       </c>
       <c r="D697" t="n">
-        <v>0</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E697" t="n">
-        <v>54.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
@@ -13689,7 +13689,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C698" s="2" t="n">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="E698" t="n">
-        <v>68.91</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="699">
@@ -13708,17 +13708,17 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C699" s="2" t="n">
-        <v>45083</v>
+        <v>45082</v>
       </c>
       <c r="D699" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E699" t="n">
-        <v>71.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700">
@@ -13746,7 +13746,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C701" s="2" t="n">
@@ -13756,7 +13756,7 @@
         <v>0</v>
       </c>
       <c r="E701" t="n">
-        <v>73.81</v>
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="702">
@@ -13765,7 +13765,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C702" s="2" t="n">
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="E702" t="n">
-        <v>339.35</v>
+        <v>73.81</v>
       </c>
     </row>
     <row r="703">
@@ -13784,17 +13784,17 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C703" s="2" t="n">
-        <v>45084</v>
+        <v>45083</v>
       </c>
       <c r="D703" t="n">
-        <v>333.12</v>
+        <v>0</v>
       </c>
       <c r="E703" t="n">
-        <v>0</v>
+        <v>339.35</v>
       </c>
     </row>
     <row r="704">
@@ -13813,7 +13813,7 @@
         <v>0</v>
       </c>
       <c r="E704" t="n">
-        <v>2.85</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="705">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C705" s="2" t="n">
@@ -13832,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="E705" t="n">
-        <v>6.05</v>
+        <v>315.26</v>
       </c>
     </row>
     <row r="706">
@@ -13841,7 +13841,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C706" s="2" t="n">
@@ -13851,7 +13851,7 @@
         <v>0</v>
       </c>
       <c r="E706" t="n">
-        <v>315.26</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="707">
@@ -13860,17 +13860,17 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C707" s="2" t="n">
         <v>45084</v>
       </c>
       <c r="D707" t="n">
-        <v>0</v>
+        <v>333.12</v>
       </c>
       <c r="E707" t="n">
-        <v>36.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
@@ -13879,17 +13879,17 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C708" s="2" t="n">
-        <v>45085</v>
+        <v>45084</v>
       </c>
       <c r="D708" t="n">
         <v>0</v>
       </c>
       <c r="E708" t="n">
-        <v>4.48</v>
+        <v>36.86</v>
       </c>
     </row>
     <row r="709">
@@ -13898,17 +13898,17 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C709" s="2" t="n">
         <v>45085</v>
       </c>
       <c r="D709" t="n">
-        <v>315.26</v>
+        <v>0</v>
       </c>
       <c r="E709" t="n">
-        <v>0</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="710">
@@ -13936,17 +13936,17 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C711" s="2" t="n">
-        <v>45086</v>
+        <v>45085</v>
       </c>
       <c r="D711" t="n">
-        <v>0</v>
+        <v>315.26</v>
       </c>
       <c r="E711" t="n">
-        <v>20.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
@@ -13993,14 +13993,14 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C714" s="2" t="n">
         <v>45086</v>
       </c>
       <c r="D714" t="n">
-        <v>615.34</v>
+        <v>44.87</v>
       </c>
       <c r="E714" t="n">
         <v>0</v>
@@ -14012,7 +14012,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C715" s="2" t="n">
@@ -14022,7 +14022,7 @@
         <v>0</v>
       </c>
       <c r="E715" t="n">
-        <v>5.32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="716">
@@ -14031,17 +14031,17 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C716" s="2" t="n">
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="D716" t="n">
         <v>0</v>
       </c>
       <c r="E716" t="n">
-        <v>66.63</v>
+        <v>615.34</v>
       </c>
     </row>
     <row r="717">
@@ -14050,17 +14050,17 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C717" s="2" t="n">
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="D717" t="n">
         <v>0</v>
       </c>
       <c r="E717" t="n">
-        <v>54.07</v>
+        <v>41.82</v>
       </c>
     </row>
     <row r="718">
@@ -14069,17 +14069,17 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C718" s="2" t="n">
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="D718" t="n">
         <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>25.69</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="719">
@@ -14088,17 +14088,17 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C719" s="2" t="n">
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="D719" t="n">
         <v>0</v>
       </c>
       <c r="E719" t="n">
-        <v>40.59</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="720">
@@ -14107,17 +14107,17 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Misc</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C720" s="2" t="n">
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="D720" t="n">
-        <v>0</v>
+        <v>615.34</v>
       </c>
       <c r="E720" t="n">
-        <v>9.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
@@ -14126,17 +14126,17 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Transfers</t>
         </is>
       </c>
       <c r="C721" s="2" t="n">
-        <v>45088</v>
+        <v>45086</v>
       </c>
       <c r="D721" t="n">
-        <v>0</v>
+        <v>41.82</v>
       </c>
       <c r="E721" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722">
@@ -14145,17 +14145,17 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C722" s="2" t="n">
-        <v>45088</v>
+        <v>45087</v>
       </c>
       <c r="D722" t="n">
         <v>0</v>
       </c>
       <c r="E722" t="n">
-        <v>6.05</v>
+        <v>40.59</v>
       </c>
     </row>
     <row r="723">
@@ -14164,17 +14164,17 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="C723" s="2" t="n">
-        <v>45088</v>
+        <v>45087</v>
       </c>
       <c r="D723" t="n">
         <v>0</v>
       </c>
       <c r="E723" t="n">
-        <v>44.79</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="724">
@@ -14183,17 +14183,17 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C724" s="2" t="n">
-        <v>45088</v>
+        <v>45087</v>
       </c>
       <c r="D724" t="n">
         <v>0</v>
       </c>
       <c r="E724" t="n">
-        <v>3.1</v>
+        <v>54.07</v>
       </c>
     </row>
     <row r="725">
@@ -14202,17 +14202,17 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C725" s="2" t="n">
-        <v>45089</v>
+        <v>45087</v>
       </c>
       <c r="D725" t="n">
         <v>0</v>
       </c>
       <c r="E725" t="n">
-        <v>102.28</v>
+        <v>66.63</v>
       </c>
     </row>
     <row r="726">
@@ -14221,17 +14221,17 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C726" s="2" t="n">
-        <v>45090</v>
+        <v>45087</v>
       </c>
       <c r="D726" t="n">
         <v>0</v>
       </c>
       <c r="E726" t="n">
-        <v>51.2</v>
+        <v>25.69</v>
       </c>
     </row>
     <row r="727">
@@ -14244,7 +14244,7 @@
         </is>
       </c>
       <c r="C727" s="2" t="n">
-        <v>45091</v>
+        <v>45088</v>
       </c>
       <c r="D727" t="n">
         <v>0</v>
@@ -14263,13 +14263,13 @@
         </is>
       </c>
       <c r="C728" s="2" t="n">
-        <v>45091</v>
+        <v>45088</v>
       </c>
       <c r="D728" t="n">
         <v>0</v>
       </c>
       <c r="E728" t="n">
-        <v>20.95</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="729">
@@ -14278,17 +14278,17 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C729" s="2" t="n">
-        <v>45091</v>
+        <v>45088</v>
       </c>
       <c r="D729" t="n">
         <v>0</v>
       </c>
       <c r="E729" t="n">
-        <v>49.19</v>
+        <v>44.79</v>
       </c>
     </row>
     <row r="730">
@@ -14297,17 +14297,17 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C730" s="2" t="n">
-        <v>45092</v>
+        <v>45088</v>
       </c>
       <c r="D730" t="n">
         <v>0</v>
       </c>
       <c r="E730" t="n">
-        <v>50.39</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="731">
@@ -14320,13 +14320,13 @@
         </is>
       </c>
       <c r="C731" s="2" t="n">
-        <v>45092</v>
+        <v>45089</v>
       </c>
       <c r="D731" t="n">
         <v>0</v>
       </c>
       <c r="E731" t="n">
-        <v>6.93</v>
+        <v>102.28</v>
       </c>
     </row>
     <row r="732">
@@ -14335,17 +14335,17 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Misc</t>
         </is>
       </c>
       <c r="C732" s="2" t="n">
-        <v>45092</v>
+        <v>45089</v>
       </c>
       <c r="D732" t="n">
         <v>0</v>
       </c>
       <c r="E732" t="n">
-        <v>29.99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="733">
@@ -14354,17 +14354,17 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Reimbursements</t>
         </is>
       </c>
       <c r="C733" s="2" t="n">
-        <v>45092</v>
+        <v>45089</v>
       </c>
       <c r="D733" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E733" t="n">
-        <v>18.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734">
@@ -14373,17 +14373,17 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C734" s="2" t="n">
-        <v>45092</v>
+        <v>45090</v>
       </c>
       <c r="D734" t="n">
         <v>0</v>
       </c>
       <c r="E734" t="n">
-        <v>1.5</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="735">
@@ -14396,13 +14396,13 @@
         </is>
       </c>
       <c r="C735" s="2" t="n">
-        <v>45093</v>
+        <v>45091</v>
       </c>
       <c r="D735" t="n">
         <v>0</v>
       </c>
       <c r="E735" t="n">
-        <v>3.1</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="736">
@@ -14411,17 +14411,17 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Home &amp; Office</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C736" s="2" t="n">
-        <v>45093</v>
+        <v>45091</v>
       </c>
       <c r="D736" t="n">
         <v>0</v>
       </c>
       <c r="E736" t="n">
-        <v>111.99</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="737">
@@ -14430,17 +14430,17 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C737" s="2" t="n">
-        <v>45093</v>
+        <v>45091</v>
       </c>
       <c r="D737" t="n">
         <v>0</v>
       </c>
       <c r="E737" t="n">
-        <v>1.35</v>
+        <v>49.19</v>
       </c>
     </row>
     <row r="738">
@@ -14449,17 +14449,17 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C738" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="D738" t="n">
-        <v>1534.01</v>
+        <v>0</v>
       </c>
       <c r="E738" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="739">
@@ -14468,17 +14468,17 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C739" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="D739" t="n">
         <v>0</v>
       </c>
       <c r="E739" t="n">
-        <v>40.95</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="740">
@@ -14487,17 +14487,17 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C740" s="2" t="n">
-        <v>45094</v>
+        <v>45092</v>
       </c>
       <c r="D740" t="n">
         <v>0</v>
       </c>
       <c r="E740" t="n">
-        <v>9.859999999999999</v>
+        <v>50.39</v>
       </c>
     </row>
     <row r="741">
@@ -14506,17 +14506,17 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C741" s="2" t="n">
-        <v>45094</v>
+        <v>45092</v>
       </c>
       <c r="D741" t="n">
         <v>0</v>
       </c>
       <c r="E741" t="n">
-        <v>165</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="742">
@@ -14529,13 +14529,13 @@
         </is>
       </c>
       <c r="C742" s="2" t="n">
-        <v>45094</v>
+        <v>45092</v>
       </c>
       <c r="D742" t="n">
         <v>0</v>
       </c>
       <c r="E742" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="743">
@@ -14544,17 +14544,17 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="C743" s="2" t="n">
-        <v>45094</v>
+        <v>45092</v>
       </c>
       <c r="D743" t="n">
         <v>0</v>
       </c>
       <c r="E743" t="n">
-        <v>13.86</v>
+        <v>18.62</v>
       </c>
     </row>
     <row r="744">
@@ -14563,17 +14563,17 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Home &amp; Office</t>
         </is>
       </c>
       <c r="C744" s="2" t="n">
-        <v>45094</v>
+        <v>45093</v>
       </c>
       <c r="D744" t="n">
         <v>0</v>
       </c>
       <c r="E744" t="n">
-        <v>3.1</v>
+        <v>111.99</v>
       </c>
     </row>
     <row r="745">
@@ -14582,17 +14582,17 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Employment</t>
         </is>
       </c>
       <c r="C745" s="2" t="n">
-        <v>45094</v>
+        <v>45093</v>
       </c>
       <c r="D745" t="n">
-        <v>0</v>
+        <v>1534.01</v>
       </c>
       <c r="E745" t="n">
-        <v>6.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746">
@@ -14601,17 +14601,17 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C746" s="2" t="n">
-        <v>45096</v>
+        <v>45093</v>
       </c>
       <c r="D746" t="n">
         <v>0</v>
       </c>
       <c r="E746" t="n">
-        <v>213.98</v>
+        <v>40.95</v>
       </c>
     </row>
     <row r="747">
@@ -14620,17 +14620,17 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C747" s="2" t="n">
-        <v>45096</v>
+        <v>45093</v>
       </c>
       <c r="D747" t="n">
         <v>0</v>
       </c>
       <c r="E747" t="n">
-        <v>99.55</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="748">
@@ -14639,17 +14639,17 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C748" s="2" t="n">
-        <v>45096</v>
+        <v>45093</v>
       </c>
       <c r="D748" t="n">
         <v>0</v>
       </c>
       <c r="E748" t="n">
-        <v>543.65</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="749">
@@ -14658,17 +14658,17 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Misc</t>
         </is>
       </c>
       <c r="C749" s="2" t="n">
-        <v>45096</v>
+        <v>45093</v>
       </c>
       <c r="D749" t="n">
-        <v>0</v>
+        <v>27.26</v>
       </c>
       <c r="E749" t="n">
-        <v>14.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750">
@@ -14677,17 +14677,17 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C750" s="2" t="n">
-        <v>45096</v>
+        <v>45094</v>
       </c>
       <c r="D750" t="n">
         <v>0</v>
       </c>
       <c r="E750" t="n">
-        <v>8.66</v>
+        <v>13.86</v>
       </c>
     </row>
     <row r="751">
@@ -14696,17 +14696,17 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C751" s="2" t="n">
-        <v>45096</v>
+        <v>45094</v>
       </c>
       <c r="D751" t="n">
         <v>0</v>
       </c>
       <c r="E751" t="n">
-        <v>22.76</v>
+        <v>165</v>
       </c>
     </row>
     <row r="752">
@@ -14715,17 +14715,17 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C752" s="2" t="n">
-        <v>45096</v>
+        <v>45094</v>
       </c>
       <c r="D752" t="n">
         <v>0</v>
       </c>
       <c r="E752" t="n">
-        <v>55.45</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="753">
@@ -14734,17 +14734,17 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Transfers</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C753" s="2" t="n">
-        <v>45097</v>
+        <v>45094</v>
       </c>
       <c r="D753" t="n">
-        <v>213.98</v>
+        <v>0</v>
       </c>
       <c r="E753" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="754">
@@ -14753,17 +14753,17 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>Reimbursements</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C754" s="2" t="n">
-        <v>45098</v>
+        <v>45094</v>
       </c>
       <c r="D754" t="n">
-        <v>166.88</v>
+        <v>0</v>
       </c>
       <c r="E754" t="n">
-        <v>0</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="755">
@@ -14772,16 +14772,1308 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C755" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D755" t="n">
+        <v>0</v>
+      </c>
+      <c r="E755" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C756" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D756" t="n">
+        <v>0</v>
+      </c>
+      <c r="E756" t="n">
+        <v>53.24</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Transfers</t>
+        </is>
+      </c>
+      <c r="C757" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D757" t="n">
+        <v>543.65</v>
+      </c>
+      <c r="E757" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Home &amp; Office</t>
+        </is>
+      </c>
+      <c r="C758" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D758" t="n">
+        <v>212.79</v>
+      </c>
+      <c r="E758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Transfers</t>
+        </is>
+      </c>
+      <c r="C759" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D759" t="n">
+        <v>0</v>
+      </c>
+      <c r="E759" t="n">
+        <v>543.65</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Transfers</t>
+        </is>
+      </c>
+      <c r="C760" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D760" t="n">
+        <v>0</v>
+      </c>
+      <c r="E760" t="n">
+        <v>213.98</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Restaurants</t>
+        </is>
+      </c>
+      <c r="C761" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D761" t="n">
+        <v>0</v>
+      </c>
+      <c r="E761" t="n">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Restaurants</t>
+        </is>
+      </c>
+      <c r="C762" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D762" t="n">
+        <v>0</v>
+      </c>
+      <c r="E762" t="n">
+        <v>55.45</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Restaurants</t>
+        </is>
+      </c>
+      <c r="C763" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D763" t="n">
+        <v>0</v>
+      </c>
+      <c r="E763" t="n">
+        <v>22.76</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Restaurants</t>
+        </is>
+      </c>
+      <c r="C764" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D764" t="n">
+        <v>0</v>
+      </c>
+      <c r="E764" t="n">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Transfers</t>
+        </is>
+      </c>
+      <c r="C765" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D765" t="n">
+        <v>0</v>
+      </c>
+      <c r="E765" t="n">
+        <v>99.55</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Home &amp; Office</t>
+        </is>
+      </c>
+      <c r="C766" s="2" t="n">
+        <v>45097</v>
+      </c>
+      <c r="D766" t="n">
+        <v>0</v>
+      </c>
+      <c r="E766" t="n">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C767" s="2" t="n">
+        <v>45097</v>
+      </c>
+      <c r="D767" t="n">
+        <v>0</v>
+      </c>
+      <c r="E767" t="n">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C768" s="2" t="n">
+        <v>45097</v>
+      </c>
+      <c r="D768" t="n">
+        <v>0</v>
+      </c>
+      <c r="E768" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Transfers</t>
+        </is>
+      </c>
+      <c r="C769" s="2" t="n">
+        <v>45097</v>
+      </c>
+      <c r="D769" t="n">
+        <v>213.98</v>
+      </c>
+      <c r="E769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="C770" s="2" t="n">
+        <v>45097</v>
+      </c>
+      <c r="D770" t="n">
+        <v>0</v>
+      </c>
+      <c r="E770" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C771" s="2" t="n">
+        <v>45097</v>
+      </c>
+      <c r="D771" t="n">
+        <v>0</v>
+      </c>
+      <c r="E771" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C772" s="2" t="n">
+        <v>45098</v>
+      </c>
+      <c r="D772" t="n">
+        <v>0</v>
+      </c>
+      <c r="E772" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C773" s="2" t="n">
+        <v>45098</v>
+      </c>
+      <c r="D773" t="n">
+        <v>0</v>
+      </c>
+      <c r="E773" t="n">
+        <v>16.26</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="C774" s="2" t="n">
+        <v>45098</v>
+      </c>
+      <c r="D774" t="n">
+        <v>0</v>
+      </c>
+      <c r="E774" t="n">
+        <v>385.1</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Reimbursements</t>
+        </is>
+      </c>
+      <c r="C775" s="2" t="n">
+        <v>45098</v>
+      </c>
+      <c r="D775" t="n">
+        <v>166.88</v>
+      </c>
+      <c r="E775" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C776" s="2" t="n">
+        <v>45098</v>
+      </c>
+      <c r="D776" t="n">
+        <v>0</v>
+      </c>
+      <c r="E776" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
           <t>Employment</t>
         </is>
       </c>
-      <c r="C755" s="2" t="n">
+      <c r="C777" s="2" t="n">
         <v>45099</v>
       </c>
-      <c r="D755" t="n">
+      <c r="D777" t="n">
         <v>2601.54</v>
       </c>
-      <c r="E755" t="n">
+      <c r="E777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="C778" s="2" t="n">
+        <v>45099</v>
+      </c>
+      <c r="D778" t="n">
+        <v>0</v>
+      </c>
+      <c r="E778" t="n">
+        <v>25.01</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Home &amp; Office</t>
+        </is>
+      </c>
+      <c r="C779" s="2" t="n">
+        <v>45099</v>
+      </c>
+      <c r="D779" t="n">
+        <v>0</v>
+      </c>
+      <c r="E779" t="n">
+        <v>50.39</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="C780" s="2" t="n">
+        <v>45099</v>
+      </c>
+      <c r="D780" t="n">
+        <v>0</v>
+      </c>
+      <c r="E780" t="n">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Restaurants</t>
+        </is>
+      </c>
+      <c r="C781" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D781" t="n">
+        <v>0</v>
+      </c>
+      <c r="E781" t="n">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C782" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D782" t="n">
+        <v>0</v>
+      </c>
+      <c r="E782" t="n">
+        <v>65.28</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="C783" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D783" t="n">
+        <v>0</v>
+      </c>
+      <c r="E783" t="n">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Reimbursements</t>
+        </is>
+      </c>
+      <c r="C784" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D784" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="E784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Home &amp; Office</t>
+        </is>
+      </c>
+      <c r="C785" s="2" t="n">
+        <v>45101</v>
+      </c>
+      <c r="D785" t="n">
+        <v>0</v>
+      </c>
+      <c r="E785" t="n">
+        <v>162.69</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C786" s="2" t="n">
+        <v>45101</v>
+      </c>
+      <c r="D786" t="n">
+        <v>0</v>
+      </c>
+      <c r="E786" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C787" s="2" t="n">
+        <v>45101</v>
+      </c>
+      <c r="D787" t="n">
+        <v>0</v>
+      </c>
+      <c r="E787" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C788" s="2" t="n">
+        <v>45102</v>
+      </c>
+      <c r="D788" t="n">
+        <v>0</v>
+      </c>
+      <c r="E788" t="n">
+        <v>251.99</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Home &amp; Office</t>
+        </is>
+      </c>
+      <c r="C789" s="2" t="n">
+        <v>45102</v>
+      </c>
+      <c r="D789" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="E789" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C790" s="2" t="n">
+        <v>45102</v>
+      </c>
+      <c r="D790" t="n">
+        <v>0</v>
+      </c>
+      <c r="E790" t="n">
+        <v>58.24</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Restaurants</t>
+        </is>
+      </c>
+      <c r="C791" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D791" t="n">
+        <v>0</v>
+      </c>
+      <c r="E791" t="n">
+        <v>38.53</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C792" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D792" t="n">
+        <v>0</v>
+      </c>
+      <c r="E792" t="n">
+        <v>46.33</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Transfers</t>
+        </is>
+      </c>
+      <c r="C793" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D793" t="n">
+        <v>0</v>
+      </c>
+      <c r="E793" t="n">
+        <v>162.17</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
+      <c r="C794" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D794" t="n">
+        <v>0</v>
+      </c>
+      <c r="E794" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C795" s="2" t="n">
+        <v>45104</v>
+      </c>
+      <c r="D795" t="n">
+        <v>0</v>
+      </c>
+      <c r="E795" t="n">
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Transfers</t>
+        </is>
+      </c>
+      <c r="C796" s="2" t="n">
+        <v>45104</v>
+      </c>
+      <c r="D796" t="n">
+        <v>162.17</v>
+      </c>
+      <c r="E796" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C797" s="2" t="n">
+        <v>45105</v>
+      </c>
+      <c r="D797" t="n">
+        <v>0</v>
+      </c>
+      <c r="E797" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C798" s="2" t="n">
+        <v>45105</v>
+      </c>
+      <c r="D798" t="n">
+        <v>0</v>
+      </c>
+      <c r="E798" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Home &amp; Office</t>
+        </is>
+      </c>
+      <c r="C799" s="2" t="n">
+        <v>45105</v>
+      </c>
+      <c r="D799" t="n">
+        <v>0</v>
+      </c>
+      <c r="E799" t="n">
+        <v>33.53</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>Reimbursements</t>
+        </is>
+      </c>
+      <c r="C800" s="2" t="n">
+        <v>45105</v>
+      </c>
+      <c r="D800" t="n">
+        <v>12</v>
+      </c>
+      <c r="E800" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>Transfers</t>
+        </is>
+      </c>
+      <c r="C801" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="D801" t="n">
+        <v>0</v>
+      </c>
+      <c r="E801" t="n">
+        <v>612.0599999999999</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>Transfers</t>
+        </is>
+      </c>
+      <c r="C802" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="D802" t="n">
+        <v>0</v>
+      </c>
+      <c r="E802" t="n">
+        <v>592.86</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Transfers</t>
+        </is>
+      </c>
+      <c r="C803" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="D803" t="n">
+        <v>612.0599999999999</v>
+      </c>
+      <c r="E803" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C804" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="D804" t="n">
+        <v>0</v>
+      </c>
+      <c r="E804" t="n">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C805" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="D805" t="n">
+        <v>0</v>
+      </c>
+      <c r="E805" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C806" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="D806" t="n">
+        <v>0</v>
+      </c>
+      <c r="E806" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C807" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="D807" t="n">
+        <v>0</v>
+      </c>
+      <c r="E807" t="n">
+        <v>88.48999999999999</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Transfers</t>
+        </is>
+      </c>
+      <c r="C808" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="D808" t="n">
+        <v>592.86</v>
+      </c>
+      <c r="E808" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Restaurants</t>
+        </is>
+      </c>
+      <c r="C809" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="D809" t="n">
+        <v>0</v>
+      </c>
+      <c r="E809" t="n">
+        <v>23.84</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Restaurants</t>
+        </is>
+      </c>
+      <c r="C810" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="D810" t="n">
+        <v>0</v>
+      </c>
+      <c r="E810" t="n">
+        <v>20.74</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C811" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="D811" t="n">
+        <v>0</v>
+      </c>
+      <c r="E811" t="n">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C812" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D812" t="n">
+        <v>0</v>
+      </c>
+      <c r="E812" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="C813" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D813" t="n">
+        <v>1534.03</v>
+      </c>
+      <c r="E813" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C814" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D814" t="n">
+        <v>0</v>
+      </c>
+      <c r="E814" t="n">
+        <v>20.21</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C815" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D815" t="n">
+        <v>0</v>
+      </c>
+      <c r="E815" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C816" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D816" t="n">
+        <v>0</v>
+      </c>
+      <c r="E816" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Restaurants</t>
+        </is>
+      </c>
+      <c r="C817" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D817" t="n">
+        <v>0</v>
+      </c>
+      <c r="E817" t="n">
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>Subsidiary</t>
+        </is>
+      </c>
+      <c r="C818" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D818" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E818" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Rent &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="C819" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D819" t="n">
+        <v>0</v>
+      </c>
+      <c r="E819" t="n">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Subsidiary</t>
+        </is>
+      </c>
+      <c r="C820" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D820" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E820" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Subsidiary</t>
+        </is>
+      </c>
+      <c r="C821" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D821" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E821" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C822" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D822" t="n">
+        <v>0</v>
+      </c>
+      <c r="E822" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Subsidiary</t>
+        </is>
+      </c>
+      <c r="C823" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D823" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E823" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Spending Analysis 2023/Final.xlsx
+++ b/Spending Analysis 2023/Final.xlsx
@@ -12328,10 +12328,10 @@
         <v>45062</v>
       </c>
       <c r="D626" t="n">
+        <v>0</v>
+      </c>
+      <c r="E626" t="n">
         <v>1.56</v>
-      </c>
-      <c r="E626" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -13145,10 +13145,10 @@
         <v>45077</v>
       </c>
       <c r="D669" t="n">
+        <v>0</v>
+      </c>
+      <c r="E669" t="n">
         <v>97.98999999999999</v>
-      </c>
-      <c r="E669" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -19624,10 +19624,10 @@
         <v>45159</v>
       </c>
       <c r="D1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1010" t="n">
         <v>2500</v>
-      </c>
-      <c r="E1010" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="1011">
@@ -20631,10 +20631,10 @@
         <v>45174</v>
       </c>
       <c r="D1063" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E1063" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064">
